--- a/notebooks/magicbricks/nan_274_address_analysis.xlsx
+++ b/notebooks/magicbricks/nan_274_address_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E243"/>
+  <dimension ref="A1:E242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1759,11 +1759,11 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>6574</v>
+        <v>6578</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>boraivali w 401, mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1780,11 +1780,11 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>6578</v>
+        <v>6621</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>mumbai, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1801,11 +1801,11 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>6621</v>
+        <v>6746</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>mumbai, mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>6746</v>
+        <v>7042</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1843,53 +1843,53 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>7042</v>
+        <v>7230</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>7230</v>
+        <v>7332</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>samarpan, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>7332</v>
+        <v>7406</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>samarpan, mumbai, maharashtra</t>
+          <t>laxmi leela, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1906,11 +1906,11 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>7406</v>
+        <v>7440</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>laxmi leela, mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>7440</v>
+        <v>7474</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>7474</v>
+        <v>7516</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1969,32 +1969,32 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>7516</v>
+        <v>7531</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>7531</v>
+        <v>7536</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>sector 7, navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -2011,74 +2011,74 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>7536</v>
+        <v>7665</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sector 7, navi mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>7665</v>
+        <v>7694</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>7694</v>
+        <v>7699</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>link road, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>7699</v>
+        <v>7834</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>link road, mumbai, maharashtra</t>
+          <t>western highway touch, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -2095,11 +2095,11 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>7834</v>
+        <v>8356</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>western highway touch, mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -2116,53 +2116,53 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>8356</v>
+        <v>8396</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>8396</v>
+        <v>8446</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>gulmohar road no 10, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>8446</v>
+        <v>8500</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>gulmohar road no 10, mumbai, maharashtra</t>
+          <t>thane, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -2179,11 +2179,11 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>8500</v>
+        <v>8503</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>thane, mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>8503</v>
+        <v>8573</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2221,28 +2221,28 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>8573</v>
+        <v>8738</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>8738</v>
+        <v>8779</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>8779</v>
+        <v>8871</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2284,49 +2284,49 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>8871</v>
+        <v>9179</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>9179</v>
+        <v>9181</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>9181</v>
+        <v>9185</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2347,11 +2347,11 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>9185</v>
+        <v>9191</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>midc mankivali, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -2368,49 +2368,49 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>9191</v>
+        <v>9192</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>midc mankivali, mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>9192</v>
+        <v>9194</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>9194</v>
+        <v>9201</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2431,91 +2431,91 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>9201</v>
+        <v>9205</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>c-15., thane, maharashtra</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>9205</v>
+        <v>9212</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>c-15., thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>9212</v>
+        <v>9213</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>9213</v>
+        <v>9216</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>9216</v>
+        <v>9226</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>9226</v>
+        <v>9229</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2557,91 +2557,91 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>9229</v>
+        <v>9230</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>9230</v>
+        <v>9263</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>9263</v>
+        <v>9468</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>mumbai, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>9468</v>
+        <v>9562</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>mumbai, mumbai, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>9562</v>
+        <v>9566</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2662,74 +2662,74 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>9566</v>
+        <v>9568</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>9568</v>
+        <v>9586</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>9586</v>
+        <v>9590</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>richmond tower, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>9590</v>
+        <v>9594</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>richmond tower, mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -2746,133 +2746,133 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>9594</v>
+        <v>9600</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>9600</v>
+        <v>9606</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>9606</v>
+        <v>9607</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>9607</v>
+        <v>9618</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>9618</v>
+        <v>9625</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>9625</v>
+        <v>9626</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>9626</v>
+        <v>9634</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2893,28 +2893,28 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>9634</v>
+        <v>9635</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>9635</v>
+        <v>9647</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2935,53 +2935,53 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>9647</v>
+        <v>9653</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>palghar, maharashtra</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>palghar</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>9653</v>
+        <v>9668</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>palghar, maharashtra</t>
+          <t>gokul 4, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>palghar</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>9668</v>
+        <v>9692</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>gokul 4, mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>9692</v>
+        <v>9693</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3019,49 +3019,49 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>9693</v>
+        <v>9717</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>9717</v>
+        <v>9718</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>9718</v>
+        <v>9740</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3082,49 +3082,49 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>9740</v>
+        <v>9767</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>new golden neat, thane, maharashtra</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>9767</v>
+        <v>9774</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>new golden neat, thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>9774</v>
+        <v>9778</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3145,28 +3145,28 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>9778</v>
+        <v>9931</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>9931</v>
+        <v>10139</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3187,154 +3187,154 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>10139</v>
+        <v>10150</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>10150</v>
+        <v>10153</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>10153</v>
+        <v>10158</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>10158</v>
+        <v>10164</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>10164</v>
+        <v>10180</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>10180</v>
+        <v>10195</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>10195</v>
+        <v>10196</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>10196</v>
+        <v>10203</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>10203</v>
+        <v>10206</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3376,53 +3376,53 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>10206</v>
+        <v>10208</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>10208</v>
+        <v>10209</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>10209</v>
+        <v>10214</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>moti nagar chs, c602, pk road new golden nest, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -3439,11 +3439,11 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>10214</v>
+        <v>10225</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>moti nagar chs, c602, pk road new golden nest, mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>10225</v>
+        <v>10226</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>10226</v>
+        <v>10239</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3502,28 +3502,28 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>10239</v>
+        <v>10241</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>10241</v>
+        <v>10245</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -3544,91 +3544,91 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>10245</v>
+        <v>10246</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>10246</v>
+        <v>10275</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>old mumbai pune highway, shedube, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>10275</v>
+        <v>10286</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>old mumbai pune highway, shedube, mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>10286</v>
+        <v>10292</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>10292</v>
+        <v>10297</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3649,133 +3649,133 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>10297</v>
+        <v>10301</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>10301</v>
+        <v>10309</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>palghar, maharashtra</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>palghar</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>10309</v>
+        <v>10310</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>palghar, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>palghar</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>10310</v>
+        <v>10324</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>palghar, maharashtra</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>palghar</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>10324</v>
+        <v>10331</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>palghar, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>palghar</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>10331</v>
+        <v>10336</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>10336</v>
+        <v>10337</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -3796,53 +3796,53 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>10337</v>
+        <v>10350</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>10350</v>
+        <v>10352</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>10352</v>
+        <v>10357</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>c/304., mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -3859,11 +3859,11 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>10357</v>
+        <v>10360</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>c/304., mumbai, maharashtra</t>
+          <t>h 1004 10th floor, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -3880,49 +3880,49 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>10360</v>
+        <v>10368</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>h 1004 10th floor, mumbai, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>10368</v>
+        <v>10372</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>10372</v>
+        <v>10374</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>10374</v>
+        <v>10386</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>10386</v>
+        <v>10391</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3985,28 +3985,28 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>10391</v>
+        <v>10393</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>10393</v>
+        <v>10413</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4027,28 +4027,28 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>10413</v>
+        <v>10414</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>10414</v>
+        <v>10415</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4069,28 +4069,28 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>10415</v>
+        <v>10463</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>10463</v>
+        <v>10642</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4111,91 +4111,91 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>10642</v>
+        <v>10663</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>10663</v>
+        <v>10685</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>10685</v>
+        <v>10737</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>10737</v>
+        <v>10743</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>10743</v>
+        <v>10750</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4216,49 +4216,49 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>10750</v>
+        <v>10755</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>palghar, maharashtra</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>palghar</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>10755</v>
+        <v>10812</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>palghar, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>palghar</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>10812</v>
+        <v>10825</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -4279,28 +4279,28 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>10825</v>
+        <v>10840</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>10840</v>
+        <v>10853</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -4321,32 +4321,32 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>10853</v>
+        <v>10854</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>q-804., mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>10854</v>
+        <v>10862</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>q-804., mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -4363,70 +4363,70 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>10862</v>
+        <v>11151</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>11151</v>
+        <v>11194</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>11194</v>
+        <v>11196</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>11196</v>
+        <v>11200</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>11200</v>
+        <v>11209</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>11209</v>
+        <v>11213</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -4489,196 +4489,196 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>11213</v>
+        <v>11218</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>11218</v>
+        <v>11223</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>11223</v>
+        <v>11228</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>11228</v>
+        <v>11230</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>11230</v>
+        <v>11234</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>11234</v>
+        <v>11248</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>11248</v>
+        <v>11276</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>11276</v>
+        <v>11277</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>11277</v>
+        <v>11281</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>palghar, maharashtra</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>palghar</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>11281</v>
+        <v>11299</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -4699,28 +4699,28 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>11299</v>
+        <v>11306</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>palghar, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>palghar</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>11306</v>
+        <v>11673</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -4741,28 +4741,28 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>11673</v>
+        <v>11677</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>palghar, maharashtra</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>palghar</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>11677</v>
+        <v>11679</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -4783,70 +4783,70 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>11679</v>
+        <v>11682</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>palghar, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>palghar</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>11682</v>
+        <v>11685</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>11685</v>
+        <v>11690</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>11690</v>
+        <v>11693</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -4867,28 +4867,28 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>11693</v>
+        <v>11694</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>11694</v>
+        <v>11709</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -4909,32 +4909,32 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>11709</v>
+        <v>11721</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>d 303, shehnai, lodha heritage, thane, maharashtra</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>11721</v>
+        <v>11723</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>d 303, shehnai, lodha heritage, thane, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -4951,70 +4951,70 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>11723</v>
+        <v>11730</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>11730</v>
+        <v>11731</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>palghar, maharashtra</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>palghar</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>11731</v>
+        <v>11733</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>palghar, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>palghar</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>11733</v>
+        <v>11735</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -5035,11 +5035,11 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>11735</v>
+        <v>11739</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>flat no 504, pipeline road, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -5056,49 +5056,49 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>11739</v>
+        <v>11740</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>flat no 504, pipeline road, mumbai, maharashtra</t>
+          <t>navi mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>navi mumbai</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>11740</v>
+        <v>11745</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>navi mumbai, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'navi mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>navi mumbai</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>11745</v>
+        <v>11747</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -5119,11 +5119,11 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>11747</v>
+        <v>11748</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>b wing 2 nd floor, flat number 203204, mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -5140,70 +5140,70 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>11748</v>
+        <v>11749</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>b wing 2 nd floor, flat number 203204, mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>11749</v>
+        <v>11752</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>101., mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>11752</v>
+        <v>11754</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>101., mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>11754</v>
+        <v>11755</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>11755</v>
+        <v>11756</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>11756</v>
+        <v>11766</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -5266,28 +5266,28 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>11766</v>
+        <v>11768</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>11768</v>
+        <v>11777</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -5308,28 +5308,28 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>11777</v>
+        <v>11855</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>11855</v>
+        <v>11858</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -5350,28 +5350,28 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>11858</v>
+        <v>11866</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>11866</v>
+        <v>11873</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>11873</v>
+        <v>11875</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -5413,91 +5413,91 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>11875</v>
+        <v>11883</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>palghar, maharashtra</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>palghar</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>11883</v>
+        <v>11884</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>palghar, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'palghar', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>palghar</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>11884</v>
+        <v>11885</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>mumbai, maharashtra</t>
+          <t>thane, maharashtra</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>thane</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>11885</v>
+        <v>11886</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>thane, maharashtra</t>
+          <t>mumbai, maharashtra</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'thane', 'addresscountry': 'in'}</t>
+          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>thane</t>
+          <t>mumbai</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>11886</v>
+        <v>11891</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -5511,27 +5511,6 @@
         </is>
       </c>
       <c r="E242" t="inlineStr">
-        <is>
-          <t>mumbai</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>11891</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>mumbai, maharashtra</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>{'@type': 'postaladdress', 'addressregion': 'mumbai', 'addresscountry': 'in'}</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
         <is>
           <t>mumbai</t>
         </is>
